--- a/Projects/CARLSBERG/Data/KPI_Assortment_Template.xlsx
+++ b/Projects/CARLSBERG/Data/KPI_Assortment_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Granular Groups link to stores" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups'!$A$2:$E$402</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Granular Groups'!$A$2:$E$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Granular Groups'!$A$2:$E$402</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Granular Groups'!$A$2:$E$402</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -116,7 +118,7 @@
     <t xml:space="preserve">End date</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambient Shelf</t>
+    <t xml:space="preserve">MSL_Ambient_Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">EAN_1</t>
@@ -131,7 +133,7 @@
     <t xml:space="preserve">EAN_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler Space</t>
+    <t xml:space="preserve">MSL_Cooler_Space</t>
   </si>
   <si>
     <t xml:space="preserve">EAN_5</t>
@@ -140,7 +142,7 @@
     <t xml:space="preserve">EAN_6</t>
   </si>
   <si>
-    <t xml:space="preserve">Floor Stack</t>
+    <t xml:space="preserve">MSL_Floor_Stack</t>
   </si>
   <si>
     <t xml:space="preserve">EAN_7</t>
@@ -275,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -328,46 +330,6 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -394,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,11 +397,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,47 +413,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -586,19 +540,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66600</xdr:colOff>
+      <xdr:colOff>1705680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1521360</xdr:colOff>
+      <xdr:colOff>2586960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>420120</xdr:rowOff>
+      <xdr:rowOff>406800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="0" name="Bild 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -607,45 +561,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66600" y="65880"/>
-          <a:ext cx="1454760" cy="354240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1705680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2587680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>407520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Bild 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="1705680" y="77040"/>
-          <a:ext cx="882000" cy="330480"/>
+          <a:ext cx="881280" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,7 +589,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="1" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -712,19 +629,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>1716480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1533960</xdr:colOff>
+      <xdr:colOff>2628720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>429480</xdr:rowOff>
+      <xdr:rowOff>405360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3" descr=""/>
+        <xdr:cNvPr id="2" name="Bild 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -733,45 +650,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76320" y="69120"/>
-          <a:ext cx="1457640" cy="360360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1716480</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2629440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>406080</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Bild 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="1716480" y="86760"/>
-          <a:ext cx="912960" cy="319320"/>
+          <a:ext cx="912240" cy="318600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,7 +678,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -859,25 +739,25 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1171,33 +1051,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:LG20"/>
+  <dimension ref="A1:LG18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="102" zoomScaleNormal="102" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.2024291497976"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="181" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="319" min="182" style="12" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="319" min="182" style="13" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="320" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="FZ1" s="0"/>
       <c r="GA1" s="0"/>
       <c r="GB1" s="0"/>
@@ -1337,20 +1217,20 @@
       <c r="LF1" s="0"/>
       <c r="LG1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="FZ2" s="0"/>
@@ -1492,20 +1372,20 @@
       <c r="LF2" s="0"/>
       <c r="LG2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="3" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="21"/>
       <c r="FZ3" s="0"/>
       <c r="GA3" s="0"/>
       <c r="GB3" s="0"/>
@@ -1645,20 +1525,20 @@
       <c r="LF3" s="0"/>
       <c r="LG3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="21"/>
       <c r="FZ4" s="0"/>
       <c r="GA4" s="0"/>
       <c r="GB4" s="0"/>
@@ -1798,20 +1678,20 @@
       <c r="LF4" s="0"/>
       <c r="LG4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="FZ5" s="0"/>
       <c r="GA5" s="0"/>
       <c r="GB5" s="0"/>
@@ -1951,20 +1831,20 @@
       <c r="LF5" s="0"/>
       <c r="LG5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+    <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="FZ6" s="0"/>
       <c r="GA6" s="0"/>
       <c r="GB6" s="0"/>
@@ -2104,20 +1984,20 @@
       <c r="LF6" s="0"/>
       <c r="LG6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+    <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="21"/>
       <c r="FZ7" s="0"/>
       <c r="GA7" s="0"/>
       <c r="GB7" s="0"/>
@@ -2257,20 +2137,20 @@
       <c r="LF7" s="0"/>
       <c r="LG7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="FZ8" s="0"/>
       <c r="GA8" s="0"/>
       <c r="GB8" s="0"/>
@@ -2410,20 +2290,20 @@
       <c r="LF8" s="0"/>
       <c r="LG8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+    <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="21"/>
       <c r="FZ9" s="0"/>
       <c r="GA9" s="0"/>
       <c r="GB9" s="0"/>
@@ -2563,20 +2443,20 @@
       <c r="LF9" s="0"/>
       <c r="LG9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+    <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21"/>
       <c r="FZ10" s="0"/>
       <c r="GA10" s="0"/>
       <c r="GB10" s="0"/>
@@ -2716,20 +2596,20 @@
       <c r="LF10" s="0"/>
       <c r="LG10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+    <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21"/>
       <c r="FZ11" s="0"/>
       <c r="GA11" s="0"/>
       <c r="GB11" s="0"/>
@@ -2869,20 +2749,20 @@
       <c r="LF11" s="0"/>
       <c r="LG11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+    <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21"/>
       <c r="FZ12" s="0"/>
       <c r="GA12" s="0"/>
       <c r="GB12" s="0"/>
@@ -3022,20 +2902,20 @@
       <c r="LF12" s="0"/>
       <c r="LG12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+    <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="21"/>
       <c r="FZ13" s="0"/>
       <c r="GA13" s="0"/>
       <c r="GB13" s="0"/>
@@ -3175,20 +3055,20 @@
       <c r="LF13" s="0"/>
       <c r="LG13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+    <row r="14" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="FZ14" s="0"/>
       <c r="GA14" s="0"/>
       <c r="GB14" s="0"/>
@@ -3328,20 +3208,20 @@
       <c r="LF14" s="0"/>
       <c r="LG14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="15" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="21"/>
       <c r="FZ15" s="0"/>
       <c r="GA15" s="0"/>
       <c r="GB15" s="0"/>
@@ -3481,20 +3361,20 @@
       <c r="LF15" s="0"/>
       <c r="LG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+    <row r="16" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="21"/>
       <c r="FZ16" s="0"/>
       <c r="GA16" s="0"/>
       <c r="GB16" s="0"/>
@@ -3634,20 +3514,20 @@
       <c r="LF16" s="0"/>
       <c r="LG16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="21"/>
       <c r="FZ17" s="0"/>
       <c r="GA17" s="0"/>
       <c r="GB17" s="0"/>
@@ -3787,20 +3667,20 @@
       <c r="LF17" s="0"/>
       <c r="LG17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+    <row r="18" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="21" t="n">
         <v>43891</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="21"/>
       <c r="FZ18" s="0"/>
       <c r="GA18" s="0"/>
       <c r="GB18" s="0"/>
@@ -3940,296 +3820,6 @@
       <c r="LF18" s="0"/>
       <c r="LG18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="FZ19" s="0"/>
-      <c r="GA19" s="0"/>
-      <c r="GB19" s="0"/>
-      <c r="GC19" s="0"/>
-      <c r="GD19" s="0"/>
-      <c r="GE19" s="0"/>
-      <c r="GF19" s="0"/>
-      <c r="GG19" s="0"/>
-      <c r="GH19" s="0"/>
-      <c r="GI19" s="0"/>
-      <c r="GJ19" s="0"/>
-      <c r="GK19" s="0"/>
-      <c r="GL19" s="0"/>
-      <c r="GM19" s="0"/>
-      <c r="GN19" s="0"/>
-      <c r="GO19" s="0"/>
-      <c r="GP19" s="0"/>
-      <c r="GQ19" s="0"/>
-      <c r="GR19" s="0"/>
-      <c r="GS19" s="0"/>
-      <c r="GT19" s="0"/>
-      <c r="GU19" s="0"/>
-      <c r="GV19" s="0"/>
-      <c r="GW19" s="0"/>
-      <c r="GX19" s="0"/>
-      <c r="GY19" s="0"/>
-      <c r="GZ19" s="0"/>
-      <c r="HA19" s="0"/>
-      <c r="HB19" s="0"/>
-      <c r="HC19" s="0"/>
-      <c r="HD19" s="0"/>
-      <c r="HE19" s="0"/>
-      <c r="HF19" s="0"/>
-      <c r="HG19" s="0"/>
-      <c r="HH19" s="0"/>
-      <c r="HI19" s="0"/>
-      <c r="HJ19" s="0"/>
-      <c r="HK19" s="0"/>
-      <c r="HL19" s="0"/>
-      <c r="HM19" s="0"/>
-      <c r="HN19" s="0"/>
-      <c r="HO19" s="0"/>
-      <c r="HP19" s="0"/>
-      <c r="HQ19" s="0"/>
-      <c r="HR19" s="0"/>
-      <c r="HS19" s="0"/>
-      <c r="HT19" s="0"/>
-      <c r="HU19" s="0"/>
-      <c r="HV19" s="0"/>
-      <c r="HW19" s="0"/>
-      <c r="HX19" s="0"/>
-      <c r="HY19" s="0"/>
-      <c r="HZ19" s="0"/>
-      <c r="IA19" s="0"/>
-      <c r="IB19" s="0"/>
-      <c r="IC19" s="0"/>
-      <c r="ID19" s="0"/>
-      <c r="IE19" s="0"/>
-      <c r="IF19" s="0"/>
-      <c r="IG19" s="0"/>
-      <c r="IH19" s="0"/>
-      <c r="II19" s="0"/>
-      <c r="IJ19" s="0"/>
-      <c r="IK19" s="0"/>
-      <c r="IL19" s="0"/>
-      <c r="IM19" s="0"/>
-      <c r="IN19" s="0"/>
-      <c r="IO19" s="0"/>
-      <c r="IP19" s="0"/>
-      <c r="IQ19" s="0"/>
-      <c r="IR19" s="0"/>
-      <c r="IS19" s="0"/>
-      <c r="IT19" s="0"/>
-      <c r="IU19" s="0"/>
-      <c r="IV19" s="0"/>
-      <c r="IW19" s="0"/>
-      <c r="IX19" s="0"/>
-      <c r="IY19" s="0"/>
-      <c r="IZ19" s="0"/>
-      <c r="JA19" s="0"/>
-      <c r="JB19" s="0"/>
-      <c r="JC19" s="0"/>
-      <c r="JD19" s="0"/>
-      <c r="JE19" s="0"/>
-      <c r="JF19" s="0"/>
-      <c r="JG19" s="0"/>
-      <c r="JH19" s="0"/>
-      <c r="JI19" s="0"/>
-      <c r="JJ19" s="0"/>
-      <c r="JK19" s="0"/>
-      <c r="JL19" s="0"/>
-      <c r="JM19" s="0"/>
-      <c r="JN19" s="0"/>
-      <c r="JO19" s="0"/>
-      <c r="JP19" s="0"/>
-      <c r="JQ19" s="0"/>
-      <c r="JR19" s="0"/>
-      <c r="JS19" s="0"/>
-      <c r="JT19" s="0"/>
-      <c r="JU19" s="0"/>
-      <c r="JV19" s="0"/>
-      <c r="JW19" s="0"/>
-      <c r="JX19" s="0"/>
-      <c r="JY19" s="0"/>
-      <c r="JZ19" s="0"/>
-      <c r="KA19" s="0"/>
-      <c r="KB19" s="0"/>
-      <c r="KC19" s="0"/>
-      <c r="KD19" s="0"/>
-      <c r="KE19" s="0"/>
-      <c r="KF19" s="0"/>
-      <c r="KG19" s="0"/>
-      <c r="KH19" s="0"/>
-      <c r="KI19" s="0"/>
-      <c r="KJ19" s="0"/>
-      <c r="KK19" s="0"/>
-      <c r="KL19" s="0"/>
-      <c r="KM19" s="0"/>
-      <c r="KN19" s="0"/>
-      <c r="KO19" s="0"/>
-      <c r="KP19" s="0"/>
-      <c r="KQ19" s="0"/>
-      <c r="KR19" s="0"/>
-      <c r="KS19" s="0"/>
-      <c r="KT19" s="0"/>
-      <c r="KU19" s="0"/>
-      <c r="KV19" s="0"/>
-      <c r="KW19" s="0"/>
-      <c r="KX19" s="0"/>
-      <c r="KY19" s="0"/>
-      <c r="KZ19" s="0"/>
-      <c r="LA19" s="0"/>
-      <c r="LB19" s="0"/>
-      <c r="LC19" s="0"/>
-      <c r="LD19" s="0"/>
-      <c r="LE19" s="0"/>
-      <c r="LF19" s="0"/>
-      <c r="LG19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="FZ20" s="0"/>
-      <c r="GA20" s="0"/>
-      <c r="GB20" s="0"/>
-      <c r="GC20" s="0"/>
-      <c r="GD20" s="0"/>
-      <c r="GE20" s="0"/>
-      <c r="GF20" s="0"/>
-      <c r="GG20" s="0"/>
-      <c r="GH20" s="0"/>
-      <c r="GI20" s="0"/>
-      <c r="GJ20" s="0"/>
-      <c r="GK20" s="0"/>
-      <c r="GL20" s="0"/>
-      <c r="GM20" s="0"/>
-      <c r="GN20" s="0"/>
-      <c r="GO20" s="0"/>
-      <c r="GP20" s="0"/>
-      <c r="GQ20" s="0"/>
-      <c r="GR20" s="0"/>
-      <c r="GS20" s="0"/>
-      <c r="GT20" s="0"/>
-      <c r="GU20" s="0"/>
-      <c r="GV20" s="0"/>
-      <c r="GW20" s="0"/>
-      <c r="GX20" s="0"/>
-      <c r="GY20" s="0"/>
-      <c r="GZ20" s="0"/>
-      <c r="HA20" s="0"/>
-      <c r="HB20" s="0"/>
-      <c r="HC20" s="0"/>
-      <c r="HD20" s="0"/>
-      <c r="HE20" s="0"/>
-      <c r="HF20" s="0"/>
-      <c r="HG20" s="0"/>
-      <c r="HH20" s="0"/>
-      <c r="HI20" s="0"/>
-      <c r="HJ20" s="0"/>
-      <c r="HK20" s="0"/>
-      <c r="HL20" s="0"/>
-      <c r="HM20" s="0"/>
-      <c r="HN20" s="0"/>
-      <c r="HO20" s="0"/>
-      <c r="HP20" s="0"/>
-      <c r="HQ20" s="0"/>
-      <c r="HR20" s="0"/>
-      <c r="HS20" s="0"/>
-      <c r="HT20" s="0"/>
-      <c r="HU20" s="0"/>
-      <c r="HV20" s="0"/>
-      <c r="HW20" s="0"/>
-      <c r="HX20" s="0"/>
-      <c r="HY20" s="0"/>
-      <c r="HZ20" s="0"/>
-      <c r="IA20" s="0"/>
-      <c r="IB20" s="0"/>
-      <c r="IC20" s="0"/>
-      <c r="ID20" s="0"/>
-      <c r="IE20" s="0"/>
-      <c r="IF20" s="0"/>
-      <c r="IG20" s="0"/>
-      <c r="IH20" s="0"/>
-      <c r="II20" s="0"/>
-      <c r="IJ20" s="0"/>
-      <c r="IK20" s="0"/>
-      <c r="IL20" s="0"/>
-      <c r="IM20" s="0"/>
-      <c r="IN20" s="0"/>
-      <c r="IO20" s="0"/>
-      <c r="IP20" s="0"/>
-      <c r="IQ20" s="0"/>
-      <c r="IR20" s="0"/>
-      <c r="IS20" s="0"/>
-      <c r="IT20" s="0"/>
-      <c r="IU20" s="0"/>
-      <c r="IV20" s="0"/>
-      <c r="IW20" s="0"/>
-      <c r="IX20" s="0"/>
-      <c r="IY20" s="0"/>
-      <c r="IZ20" s="0"/>
-      <c r="JA20" s="0"/>
-      <c r="JB20" s="0"/>
-      <c r="JC20" s="0"/>
-      <c r="JD20" s="0"/>
-      <c r="JE20" s="0"/>
-      <c r="JF20" s="0"/>
-      <c r="JG20" s="0"/>
-      <c r="JH20" s="0"/>
-      <c r="JI20" s="0"/>
-      <c r="JJ20" s="0"/>
-      <c r="JK20" s="0"/>
-      <c r="JL20" s="0"/>
-      <c r="JM20" s="0"/>
-      <c r="JN20" s="0"/>
-      <c r="JO20" s="0"/>
-      <c r="JP20" s="0"/>
-      <c r="JQ20" s="0"/>
-      <c r="JR20" s="0"/>
-      <c r="JS20" s="0"/>
-      <c r="JT20" s="0"/>
-      <c r="JU20" s="0"/>
-      <c r="JV20" s="0"/>
-      <c r="JW20" s="0"/>
-      <c r="JX20" s="0"/>
-      <c r="JY20" s="0"/>
-      <c r="JZ20" s="0"/>
-      <c r="KA20" s="0"/>
-      <c r="KB20" s="0"/>
-      <c r="KC20" s="0"/>
-      <c r="KD20" s="0"/>
-      <c r="KE20" s="0"/>
-      <c r="KF20" s="0"/>
-      <c r="KG20" s="0"/>
-      <c r="KH20" s="0"/>
-      <c r="KI20" s="0"/>
-      <c r="KJ20" s="0"/>
-      <c r="KK20" s="0"/>
-      <c r="KL20" s="0"/>
-      <c r="KM20" s="0"/>
-      <c r="KN20" s="0"/>
-      <c r="KO20" s="0"/>
-      <c r="KP20" s="0"/>
-      <c r="KQ20" s="0"/>
-      <c r="KR20" s="0"/>
-      <c r="KS20" s="0"/>
-      <c r="KT20" s="0"/>
-      <c r="KU20" s="0"/>
-      <c r="KV20" s="0"/>
-      <c r="KW20" s="0"/>
-      <c r="KX20" s="0"/>
-      <c r="KY20" s="0"/>
-      <c r="KZ20" s="0"/>
-      <c r="LA20" s="0"/>
-      <c r="LB20" s="0"/>
-      <c r="LC20" s="0"/>
-      <c r="LD20" s="0"/>
-      <c r="LE20" s="0"/>
-      <c r="LF20" s="0"/>
-      <c r="LG20" s="0"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:E402"/>
   <conditionalFormatting sqref="D3:E3">
@@ -4325,12 +3915,6 @@
   <conditionalFormatting sqref="E6">
     <cfRule type="timePeriod" priority="32" timePeriod="today" dxfId="0"/>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B20" type="list">
-      <formula1>"Ambient Shelf,Cooler Space,Floor Stack"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4355,50 +3939,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="78.1983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="22" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="60.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
     </row>
